--- a/bug/buglist.xlsx
+++ b/bug/buglist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,27 +205,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아래 7번 문제를 해결하며 함께 해결된 것 같은데, 확인이 필요함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업데이트할 것이 없을 땐, 화면 안나오게함.
-확인필요.</t>
+    <t>업데이트할 것이 없을 땐, 화면 안나오게함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외처리 버그. 예외 처리 루틴 추가.
+전원이 늦게 들어올 경우, 모듈 초기화 부분을 지연시킴.
+사용도중 모듈 전원이 꺼질 경우는 컨트롤도 함께 꺼지는 것을 전제로함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +323,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,6 +406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -438,6 +441,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,14 +617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="76" style="1" customWidth="1"/>
@@ -633,7 +637,7 @@
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -679,7 +683,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="33">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -693,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6">
         <v>41989</v>
@@ -702,10 +706,10 @@
         <v>42006</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -719,17 +723,19 @@
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F4" s="6">
         <v>41989</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6">
+        <v>42006</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -749,7 +755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33">
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -771,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="148.5">
+    <row r="7" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -795,7 +801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="132">
+    <row r="8" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -819,7 +825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="66">
+    <row r="9" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -845,7 +851,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="82.5">
+    <row r="10" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -871,7 +877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -881,7 +887,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -891,7 +897,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -901,7 +907,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -911,7 +917,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -921,7 +927,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -939,12 +945,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -952,12 +958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bug/buglist.xlsx
+++ b/bug/buglist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,15 +214,32 @@
 사용도중 모듈 전원이 꺼질 경우는 컨트롤도 함께 꺼지는 것을 전제로함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>부팅 중, sync 시에 지정맥 모듈에 손가락을 댈 경우, 
+sync 완료 후, 손가락 인증이 안되는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync 시에 usercode를 삭제하는데, 에러처리가 없었음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,7 +423,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -441,7 +457,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,14 +632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="76" style="1" customWidth="1"/>
@@ -637,7 +652,7 @@
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -683,7 +698,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -709,7 +724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="66">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -735,7 +750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="33">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -755,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="33">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -777,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="148.5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -801,7 +816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="132">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -825,7 +840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="66">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -851,7 +866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="82.5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -877,17 +892,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+    <row r="11" spans="1:8" ht="33">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="6">
+        <v>42009</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -897,7 +924,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -907,7 +934,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -917,7 +944,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -927,7 +954,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -945,12 +972,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -958,12 +985,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bug/buglist.xlsx
+++ b/bug/buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,7 +228,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sync 시에 usercode를 삭제하는데, 에러처리가 없었음.</t>
+    <t>검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync 시에 usercode를 삭제하는데, 에러처리가 없었음.
+에러처리 추가.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -905,13 +910,17 @@
       <c r="D11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F11" s="6">
         <v>42009</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="6">
+        <v>42012</v>
+      </c>
       <c r="H11" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/bug/buglist.xlsx
+++ b/bug/buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,26 @@
   <si>
     <t>sync 시에 usercode를 삭제하는데, 에러처리가 없었음.
 에러처리 추가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부팅 후, 인증안됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 를 수정하며 생긴 사이드이펙트. Update할 내용이 없을 경우, scan을 시작하는 코드가 누락되었었습니다. (2015-01-10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +661,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -923,15 +943,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
+    <row r="12" spans="1:8" ht="33">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42012</v>
+      </c>
+      <c r="G12" s="6">
+        <v>42014</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
